--- a/cucumber-java-template/src/test/resources/testData/TestData.xlsx
+++ b/cucumber-java-template/src/test/resources/testData/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="WebTestData" sheetId="3" r:id="rId1"/>
     <sheet name="MaxBupaTestData" sheetId="4" r:id="rId2"/>
     <sheet name="RestAPITestData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H14"/>
 </workbook>
 </file>
 
@@ -641,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -890,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
